--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H2">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I2">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J2">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.432949333333333</v>
+        <v>5.685162000000001</v>
       </c>
       <c r="N2">
-        <v>13.298848</v>
+        <v>17.055486</v>
       </c>
       <c r="O2">
-        <v>0.0819600143956439</v>
+        <v>0.06448203205218037</v>
       </c>
       <c r="P2">
-        <v>0.09728967502601975</v>
+        <v>0.07835526280970742</v>
       </c>
       <c r="Q2">
-        <v>66.97709014023467</v>
+        <v>47.07525245015601</v>
       </c>
       <c r="R2">
-        <v>602.7938112621119</v>
+        <v>423.6772720514041</v>
       </c>
       <c r="S2">
-        <v>0.03242432221436328</v>
+        <v>0.01899899008059197</v>
       </c>
       <c r="T2">
-        <v>0.04141249648568722</v>
+        <v>0.02441979986576736</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H3">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I3">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J3">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.927452333333332</v>
+        <v>5.927452333333334</v>
       </c>
       <c r="N3">
         <v>17.782357</v>
       </c>
       <c r="O3">
-        <v>0.10959161543229</v>
+        <v>0.06723012841951932</v>
       </c>
       <c r="P3">
-        <v>0.1300894433658214</v>
+        <v>0.08169460876758601</v>
       </c>
       <c r="Q3">
-        <v>89.55742089050365</v>
+        <v>49.08150638063312</v>
       </c>
       <c r="R3">
-        <v>806.0167880145328</v>
+        <v>441.7335574256981</v>
       </c>
       <c r="S3">
-        <v>0.04335570066661701</v>
+        <v>0.01980868937141663</v>
       </c>
       <c r="T3">
-        <v>0.05537410434119823</v>
+        <v>0.02546052332262049</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H4">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I4">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J4">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.45419133333333</v>
+        <v>13.555466</v>
       </c>
       <c r="N4">
-        <v>31.362574</v>
+        <v>40.666398</v>
       </c>
       <c r="O4">
-        <v>0.1932856903488518</v>
+        <v>0.1537483000650186</v>
       </c>
       <c r="P4">
-        <v>0.2294375146207774</v>
+        <v>0.1868270597984813</v>
       </c>
       <c r="Q4">
-        <v>157.9515718826007</v>
+        <v>112.2442920763747</v>
       </c>
       <c r="R4">
-        <v>1421.564146943406</v>
+        <v>1010.198628687372</v>
       </c>
       <c r="S4">
-        <v>0.07646603712199827</v>
+        <v>0.04530040904231079</v>
       </c>
       <c r="T4">
-        <v>0.09766278143468557</v>
+        <v>0.05822556451464601</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H5">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I5">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J5">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.566883</v>
+        <v>46.83114999999999</v>
       </c>
       <c r="N5">
-        <v>51.13376599999999</v>
+        <v>93.66229999999999</v>
       </c>
       <c r="O5">
-        <v>0.4727015675489509</v>
+        <v>0.5311665200288868</v>
       </c>
       <c r="P5">
-        <v>0.3740765724216517</v>
+        <v>0.4302975671207292</v>
       </c>
       <c r="Q5">
-        <v>386.2880665970089</v>
+        <v>387.7793119670333</v>
       </c>
       <c r="R5">
-        <v>2317.728399582053</v>
+        <v>2326.6758718022</v>
       </c>
       <c r="S5">
-        <v>0.1870061645359644</v>
+        <v>0.1565029377021648</v>
       </c>
       <c r="T5">
-        <v>0.1592301005902881</v>
+        <v>0.134104335752582</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.108923</v>
+        <v>8.280371333333333</v>
       </c>
       <c r="H6">
-        <v>45.326769</v>
+        <v>24.841114</v>
       </c>
       <c r="I6">
-        <v>0.3956114753450629</v>
+        <v>0.2946400644635011</v>
       </c>
       <c r="J6">
-        <v>0.4256617824513403</v>
+        <v>0.3116548779253407</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.705256000000001</v>
+        <v>16.167377</v>
       </c>
       <c r="N6">
-        <v>23.115768</v>
+        <v>48.502131</v>
       </c>
       <c r="O6">
-        <v>0.1424611122742635</v>
+        <v>0.1833730194343949</v>
       </c>
       <c r="P6">
-        <v>0.1691067945657298</v>
+        <v>0.2228255015034961</v>
       </c>
       <c r="Q6">
-        <v>116.418119599288</v>
+        <v>133.8718850459927</v>
       </c>
       <c r="R6">
-        <v>1047.763076393592</v>
+        <v>1204.846965413934</v>
       </c>
       <c r="S6">
-        <v>0.05635925080612005</v>
+        <v>0.05402903826701696</v>
       </c>
       <c r="T6">
-        <v>0.07198229959948119</v>
+        <v>0.06944465446972491</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>34.208462</v>
       </c>
       <c r="I7">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J7">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.432949333333333</v>
+        <v>5.685162000000001</v>
       </c>
       <c r="N7">
-        <v>13.298848</v>
+        <v>17.055486</v>
       </c>
       <c r="O7">
-        <v>0.0819600143956439</v>
+        <v>0.06448203205218037</v>
       </c>
       <c r="P7">
-        <v>0.09728967502601975</v>
+        <v>0.07835526280970742</v>
       </c>
       <c r="Q7">
-        <v>50.54812627241954</v>
+        <v>64.826882746948</v>
       </c>
       <c r="R7">
-        <v>454.933136451776</v>
+        <v>583.4419447225321</v>
       </c>
       <c r="S7">
-        <v>0.02447088594260496</v>
+        <v>0.02616332867400017</v>
       </c>
       <c r="T7">
-        <v>0.03125433035731633</v>
+        <v>0.03362827430990847</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>34.208462</v>
       </c>
       <c r="I8">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J8">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.927452333333332</v>
+        <v>5.927452333333334</v>
       </c>
       <c r="N8">
         <v>17.782357</v>
       </c>
       <c r="O8">
-        <v>0.10959161543229</v>
+        <v>0.06723012841951932</v>
       </c>
       <c r="P8">
-        <v>0.1300894433658214</v>
+        <v>0.08169460876758601</v>
       </c>
       <c r="Q8">
-        <v>67.58967596721487</v>
+        <v>67.58967596721489</v>
       </c>
       <c r="R8">
-        <v>608.3070837049339</v>
+        <v>608.307083704934</v>
       </c>
       <c r="S8">
-        <v>0.032720881533324</v>
+        <v>0.0272783578720306</v>
       </c>
       <c r="T8">
-        <v>0.04179126343949013</v>
+        <v>0.03506144469132812</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>34.208462</v>
       </c>
       <c r="I9">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J9">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.45419133333333</v>
+        <v>13.555466</v>
       </c>
       <c r="N9">
-        <v>31.362574</v>
+        <v>40.666398</v>
       </c>
       <c r="O9">
-        <v>0.1932856903488518</v>
+        <v>0.1537483000650186</v>
       </c>
       <c r="P9">
-        <v>0.2294375146207774</v>
+        <v>0.1868270597984813</v>
       </c>
       <c r="Q9">
-        <v>119.2072689890209</v>
+        <v>154.5705478510973</v>
       </c>
       <c r="R9">
-        <v>1072.865420901188</v>
+        <v>1391.134930659876</v>
       </c>
       <c r="S9">
-        <v>0.05770950771228514</v>
+        <v>0.06238276275807698</v>
       </c>
       <c r="T9">
-        <v>0.07370685405621448</v>
+        <v>0.08018187151863708</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>34.208462</v>
       </c>
       <c r="I10">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J10">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.566883</v>
+        <v>46.83114999999999</v>
       </c>
       <c r="N10">
-        <v>51.13376599999999</v>
+        <v>93.66229999999999</v>
       </c>
       <c r="O10">
-        <v>0.4727015675489509</v>
+        <v>0.5311665200288868</v>
       </c>
       <c r="P10">
-        <v>0.3740765724216517</v>
+        <v>0.4302975671207292</v>
       </c>
       <c r="Q10">
-        <v>291.5345818546486</v>
+        <v>534.0072050637665</v>
       </c>
       <c r="R10">
-        <v>1749.207491127892</v>
+        <v>3204.043230382599</v>
       </c>
       <c r="S10">
-        <v>0.1411349940538291</v>
+        <v>0.2155187081091802</v>
       </c>
       <c r="T10">
-        <v>0.1201721844612187</v>
+        <v>0.1846738062402291</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>34.208462</v>
       </c>
       <c r="I11">
-        <v>0.2985710303133568</v>
+        <v>0.405746032520008</v>
       </c>
       <c r="J11">
-        <v>0.3212502287519973</v>
+        <v>0.4291769704298953</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.705256000000001</v>
+        <v>16.167377</v>
       </c>
       <c r="N11">
-        <v>23.115768</v>
+        <v>48.502131</v>
       </c>
       <c r="O11">
-        <v>0.1424611122742635</v>
+        <v>0.1833730194343949</v>
       </c>
       <c r="P11">
-        <v>0.1691067945657298</v>
+        <v>0.2228255015034961</v>
       </c>
       <c r="Q11">
-        <v>87.86165235875734</v>
+        <v>184.3537005813913</v>
       </c>
       <c r="R11">
-        <v>790.754871228816</v>
+        <v>1659.183305232522</v>
       </c>
       <c r="S11">
-        <v>0.04253476107131366</v>
+        <v>0.07440287510672006</v>
       </c>
       <c r="T11">
-        <v>0.05432559643775772</v>
+        <v>0.09563157366979254</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H12">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I12">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J12">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.432949333333333</v>
+        <v>5.685162000000001</v>
       </c>
       <c r="N12">
-        <v>13.298848</v>
+        <v>17.055486</v>
       </c>
       <c r="O12">
-        <v>0.0819600143956439</v>
+        <v>0.06448203205218037</v>
       </c>
       <c r="P12">
-        <v>0.09728967502601975</v>
+        <v>0.07835526280970742</v>
       </c>
       <c r="Q12">
-        <v>8.890075972330665</v>
+        <v>10.597428121154</v>
       </c>
       <c r="R12">
-        <v>80.010683750976</v>
+        <v>95.37685309038601</v>
       </c>
       <c r="S12">
-        <v>0.004303780400633698</v>
+        <v>0.004276991014902651</v>
       </c>
       <c r="T12">
-        <v>0.005496808523493526</v>
+        <v>0.005497306128829439</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H13">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I13">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J13">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.927452333333332</v>
+        <v>5.927452333333334</v>
       </c>
       <c r="N13">
         <v>17.782357</v>
       </c>
       <c r="O13">
-        <v>0.10959161543229</v>
+        <v>0.06723012841951932</v>
       </c>
       <c r="P13">
-        <v>0.1300894433658214</v>
+        <v>0.08169460876758601</v>
       </c>
       <c r="Q13">
-        <v>11.88723299169266</v>
+        <v>11.04906949776744</v>
       </c>
       <c r="R13">
-        <v>106.985096925234</v>
+        <v>99.44162547990699</v>
       </c>
       <c r="S13">
-        <v>0.005754736014252621</v>
+        <v>0.004459267892617733</v>
       </c>
       <c r="T13">
-        <v>0.007349975841922905</v>
+        <v>0.005731590417366769</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H14">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I14">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J14">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.45419133333333</v>
+        <v>13.555466</v>
       </c>
       <c r="N14">
-        <v>31.362574</v>
+        <v>40.666398</v>
       </c>
       <c r="O14">
-        <v>0.1932856903488518</v>
+        <v>0.1537483000650186</v>
       </c>
       <c r="P14">
-        <v>0.2294375146207774</v>
+        <v>0.1868270597984813</v>
       </c>
       <c r="Q14">
-        <v>20.96539982619867</v>
+        <v>25.26807091578867</v>
       </c>
       <c r="R14">
-        <v>188.688598435788</v>
+        <v>227.412638242098</v>
       </c>
       <c r="S14">
-        <v>0.01014957320322963</v>
+        <v>0.01019788113070804</v>
       </c>
       <c r="T14">
-        <v>0.01296308252277915</v>
+        <v>0.01310755020190086</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H15">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I15">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J15">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.566883</v>
+        <v>46.83114999999999</v>
       </c>
       <c r="N15">
-        <v>51.13376599999999</v>
+        <v>93.66229999999999</v>
       </c>
       <c r="O15">
-        <v>0.4727015675489509</v>
+        <v>0.5311665200288868</v>
       </c>
       <c r="P15">
-        <v>0.3740765724216517</v>
+        <v>0.4302975671207292</v>
       </c>
       <c r="Q15">
-        <v>51.27320777988199</v>
+        <v>87.29562076788331</v>
       </c>
       <c r="R15">
-        <v>307.6392466792919</v>
+        <v>523.7737246072999</v>
       </c>
       <c r="S15">
-        <v>0.02482190561784635</v>
+        <v>0.0352314336456126</v>
       </c>
       <c r="T15">
-        <v>0.02113510288914675</v>
+        <v>0.03018913303498132</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.005454</v>
+        <v>1.864050333333333</v>
       </c>
       <c r="H16">
-        <v>6.016362</v>
+        <v>5.592150999999999</v>
       </c>
       <c r="I16">
-        <v>0.05251073260990594</v>
+        <v>0.06632841551025578</v>
       </c>
       <c r="J16">
-        <v>0.05649940265525016</v>
+        <v>0.07015873512134246</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.705256000000001</v>
+        <v>16.167377</v>
       </c>
       <c r="N16">
-        <v>23.115768</v>
+        <v>48.502131</v>
       </c>
       <c r="O16">
-        <v>0.1424611122742635</v>
+        <v>0.1833730194343949</v>
       </c>
       <c r="P16">
-        <v>0.1691067945657298</v>
+        <v>0.2228255015034961</v>
       </c>
       <c r="Q16">
-        <v>15.452536466224</v>
+        <v>30.13680448597566</v>
       </c>
       <c r="R16">
-        <v>139.072828196016</v>
+        <v>271.231240373781</v>
       </c>
       <c r="S16">
-        <v>0.00748073737394364</v>
+        <v>0.01216284182641475</v>
       </c>
       <c r="T16">
-        <v>0.009554432877907838</v>
+        <v>0.01563315533826408</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H17">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I17">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J17">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.432949333333333</v>
+        <v>5.685162000000001</v>
       </c>
       <c r="N17">
-        <v>13.298848</v>
+        <v>17.055486</v>
       </c>
       <c r="O17">
-        <v>0.0819600143956439</v>
+        <v>0.06448203205218037</v>
       </c>
       <c r="P17">
-        <v>0.09728967502601975</v>
+        <v>0.07835526280970742</v>
       </c>
       <c r="Q17">
-        <v>35.85608800064</v>
+        <v>26.16829186400101</v>
       </c>
       <c r="R17">
-        <v>215.13652800384</v>
+        <v>157.009751184006</v>
       </c>
       <c r="S17">
-        <v>0.01735831383903181</v>
+        <v>0.01056119917947552</v>
       </c>
       <c r="T17">
-        <v>0.01478007992691209</v>
+        <v>0.009049686999547538</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H18">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I18">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J18">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.927452333333332</v>
+        <v>5.927452333333334</v>
       </c>
       <c r="N18">
         <v>17.782357</v>
       </c>
       <c r="O18">
-        <v>0.10959161543229</v>
+        <v>0.06723012841951932</v>
       </c>
       <c r="P18">
-        <v>0.1300894433658214</v>
+        <v>0.08169460876758601</v>
       </c>
       <c r="Q18">
-        <v>47.94443529625999</v>
+        <v>27.2835325833495</v>
       </c>
       <c r="R18">
-        <v>287.66661177756</v>
+        <v>163.701195500097</v>
       </c>
       <c r="S18">
-        <v>0.02321041142839621</v>
+        <v>0.01101129655042024</v>
       </c>
       <c r="T18">
-        <v>0.01976296426193341</v>
+        <v>0.009435366718029211</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H19">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I19">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J19">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.45419133333333</v>
+        <v>13.555466</v>
       </c>
       <c r="N19">
-        <v>31.362574</v>
+        <v>40.666398</v>
       </c>
       <c r="O19">
-        <v>0.1932856903488518</v>
+        <v>0.1537483000650186</v>
       </c>
       <c r="P19">
-        <v>0.2294375146207774</v>
+        <v>0.1868270597984813</v>
       </c>
       <c r="Q19">
-        <v>84.55914476732001</v>
+        <v>62.39459678379301</v>
       </c>
       <c r="R19">
-        <v>507.3548686039201</v>
+        <v>374.367580702758</v>
       </c>
       <c r="S19">
-        <v>0.04093598199572319</v>
+        <v>0.02518168812016409</v>
       </c>
       <c r="T19">
-        <v>0.03485575220001724</v>
+        <v>0.02157770076437728</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H20">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I20">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J20">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.566883</v>
+        <v>46.83114999999999</v>
       </c>
       <c r="N20">
-        <v>51.13376599999999</v>
+        <v>93.66229999999999</v>
       </c>
       <c r="O20">
-        <v>0.4727015675489509</v>
+        <v>0.5311665200288868</v>
       </c>
       <c r="P20">
-        <v>0.3740765724216517</v>
+        <v>0.4302975671207292</v>
       </c>
       <c r="Q20">
-        <v>206.79875582082</v>
+        <v>215.559592062075</v>
       </c>
       <c r="R20">
-        <v>827.19502328328</v>
+        <v>862.2383682482999</v>
       </c>
       <c r="S20">
-        <v>0.100113478776464</v>
+        <v>0.08699718723123367</v>
       </c>
       <c r="T20">
-        <v>0.05682906883694133</v>
+        <v>0.0496974696972998</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.08854</v>
+        <v>4.6029105</v>
       </c>
       <c r="H21">
-        <v>16.17708</v>
+        <v>9.205821</v>
       </c>
       <c r="I21">
-        <v>0.2117900291627375</v>
+        <v>0.1637851482553954</v>
       </c>
       <c r="J21">
-        <v>0.1519182783060917</v>
+        <v>0.1154955860658076</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.705256000000001</v>
+        <v>16.167377</v>
       </c>
       <c r="N21">
-        <v>23.115768</v>
+        <v>48.502131</v>
       </c>
       <c r="O21">
-        <v>0.1424611122742635</v>
+        <v>0.1833730194343949</v>
       </c>
       <c r="P21">
-        <v>0.1691067945657298</v>
+        <v>0.2228255015034961</v>
       </c>
       <c r="Q21">
-        <v>62.32427136624001</v>
+        <v>74.4169893507585</v>
       </c>
       <c r="R21">
-        <v>373.94562819744</v>
+        <v>446.501936104551</v>
       </c>
       <c r="S21">
-        <v>0.03017184312312229</v>
+        <v>0.03003377717410188</v>
       </c>
       <c r="T21">
-        <v>0.02569041308028761</v>
+        <v>0.02573536188655378</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H22">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I22">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J22">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.432949333333333</v>
+        <v>5.685162000000001</v>
       </c>
       <c r="N22">
-        <v>13.298848</v>
+        <v>17.055486</v>
       </c>
       <c r="O22">
-        <v>0.0819600143956439</v>
+        <v>0.06448203205218037</v>
       </c>
       <c r="P22">
-        <v>0.09728967502601975</v>
+        <v>0.07835526280970742</v>
       </c>
       <c r="Q22">
-        <v>7.028789893347556</v>
+        <v>11.104212937104</v>
       </c>
       <c r="R22">
-        <v>63.259109040128</v>
+        <v>99.93791643393601</v>
       </c>
       <c r="S22">
-        <v>0.003402711999010156</v>
+        <v>0.004481523103210055</v>
       </c>
       <c r="T22">
-        <v>0.004345959732610588</v>
+        <v>0.005760195505654603</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H23">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I23">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J23">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.927452333333332</v>
+        <v>5.927452333333334</v>
       </c>
       <c r="N23">
         <v>17.782357</v>
       </c>
       <c r="O23">
-        <v>0.10959161543229</v>
+        <v>0.06723012841951932</v>
       </c>
       <c r="P23">
-        <v>0.1300894433658214</v>
+        <v>0.08169460876758601</v>
       </c>
       <c r="Q23">
-        <v>9.398441967416888</v>
+        <v>11.577452477848</v>
       </c>
       <c r="R23">
-        <v>84.58597770675199</v>
+        <v>104.197072300632</v>
       </c>
       <c r="S23">
-        <v>0.004549885789700147</v>
+        <v>0.004672516733034112</v>
       </c>
       <c r="T23">
-        <v>0.005811135481276724</v>
+        <v>0.006005683618241407</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H24">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I24">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J24">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.45419133333333</v>
+        <v>13.555466</v>
       </c>
       <c r="N24">
-        <v>31.362574</v>
+        <v>40.666398</v>
       </c>
       <c r="O24">
-        <v>0.1932856903488518</v>
+        <v>0.1537483000650186</v>
       </c>
       <c r="P24">
-        <v>0.2294375146207774</v>
+        <v>0.1868270597984813</v>
       </c>
       <c r="Q24">
-        <v>16.57594275538489</v>
+        <v>26.476427747472</v>
       </c>
       <c r="R24">
-        <v>149.183484798464</v>
+        <v>238.287849727248</v>
       </c>
       <c r="S24">
-        <v>0.008024590315615605</v>
+        <v>0.01068555901375869</v>
       </c>
       <c r="T24">
-        <v>0.01024904440708096</v>
+        <v>0.01373437279892003</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H25">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I25">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J25">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.566883</v>
+        <v>46.83114999999999</v>
       </c>
       <c r="N25">
-        <v>51.13376599999999</v>
+        <v>93.66229999999999</v>
       </c>
       <c r="O25">
-        <v>0.4727015675489509</v>
+        <v>0.5311665200288868</v>
       </c>
       <c r="P25">
-        <v>0.3740765724216517</v>
+        <v>0.4302975671207292</v>
       </c>
       <c r="Q25">
-        <v>40.53830425796266</v>
+        <v>91.47022753079997</v>
       </c>
       <c r="R25">
-        <v>243.229825547776</v>
+        <v>548.8213651847999</v>
       </c>
       <c r="S25">
-        <v>0.01962502456484699</v>
+        <v>0.03691625334069557</v>
       </c>
       <c r="T25">
-        <v>0.01671011564405672</v>
+        <v>0.03163282239563698</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.585578666666667</v>
+        <v>1.953192</v>
       </c>
       <c r="H26">
-        <v>4.756736</v>
+        <v>5.859576</v>
       </c>
       <c r="I26">
-        <v>0.04151673256893677</v>
+        <v>0.0695003392508397</v>
       </c>
       <c r="J26">
-        <v>0.04467030783532042</v>
+        <v>0.0735138304576138</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.705256000000001</v>
+        <v>16.167377</v>
       </c>
       <c r="N26">
-        <v>23.115768</v>
+        <v>48.502131</v>
       </c>
       <c r="O26">
-        <v>0.1424611122742635</v>
+        <v>0.1833730194343949</v>
       </c>
       <c r="P26">
-        <v>0.1691067945657298</v>
+        <v>0.2228255015034961</v>
       </c>
       <c r="Q26">
-        <v>12.21728953480534</v>
+        <v>31.57799141738399</v>
       </c>
       <c r="R26">
-        <v>109.955605813248</v>
+        <v>284.201922756456</v>
       </c>
       <c r="S26">
-        <v>0.005914519899763874</v>
+        <v>0.01274448706014127</v>
       </c>
       <c r="T26">
-        <v>0.007554052570295441</v>
+        <v>0.01638075613916078</v>
       </c>
     </row>
   </sheetData>
